--- a/Base/Teams/Ravens/Players Yards Data.xlsx
+++ b/Base/Teams/Ravens/Players Yards Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
   <si>
     <t>L.Jackson</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>P.Ricard</t>
+  </si>
+  <si>
+    <t>N.McCrary</t>
   </si>
   <si>
     <t>M.Brown</t>
@@ -438,13 +441,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,70 +508,76 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -578,13 +587,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,70 +654,76 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Ravens/Players Yards Data.xlsx
+++ b/Base/Teams/Ravens/Players Yards Data.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="24">
   <si>
     <t>L.Jackson</t>
   </si>
   <si>
     <t>T.Huntley</t>
+  </si>
+  <si>
+    <t>J.Johnson</t>
   </si>
   <si>
     <t>T.Williams</t>
@@ -441,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,73 +514,79 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -587,13 +596,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,73 +666,79 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
